--- a/data/trans_orig/P1421-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA3F395-A5AF-4B5D-B276-AB61750F0677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6271283C-8CCF-4DE0-A8ED-6876E2757DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{750706C1-1DB5-4333-8210-1A5FBA528E87}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5DF12C4E-EB7F-4091-9F83-72A62F84D1D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="522">
   <si>
     <t>Población con diagnóstico de migrañas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1501 +95,1516 @@
     <t>1,1%</t>
   </si>
   <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>89,99%</t>
   </si>
   <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>95,62%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>5,46%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>11,98%</t>
+    <t>12,04%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>94,54%</t>
   </si>
   <si>
     <t>88,26%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>86,15%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>92,31%</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005EBE36-F2F1-4E83-91F2-FC9BAA9E3345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DB413F-8D40-4064-A262-F178F57805F5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2179,10 +2194,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -2191,13 +2206,13 @@
         <v>15299</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -2206,19 +2221,19 @@
         <v>20745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>494</v>
@@ -2227,13 +2242,13 @@
         <v>488618</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>473</v>
@@ -2242,13 +2257,13 @@
         <v>452190</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>967</v>
@@ -2257,13 +2272,13 @@
         <v>940808</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2293,13 @@
         <v>494064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2293,13 +2308,13 @@
         <v>467489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>988</v>
@@ -2308,18 +2323,18 @@
         <v>961553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2337,7 +2352,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2352,7 +2367,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2367,7 +2382,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2397,13 @@
         <v>15182</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -2397,13 +2412,13 @@
         <v>47553</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -2412,19 +2427,19 @@
         <v>62735</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>688</v>
@@ -2433,13 +2448,13 @@
         <v>720307</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>546</v>
@@ -2448,13 +2463,13 @@
         <v>577941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1234</v>
@@ -2463,13 +2478,13 @@
         <v>1298247</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2499,13 @@
         <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -2499,13 +2514,13 @@
         <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -2514,18 +2529,18 @@
         <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2543,7 +2558,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2558,7 +2573,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2573,7 +2588,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2603,13 @@
         <v>13611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -2603,13 +2618,13 @@
         <v>41987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -2618,19 +2633,19 @@
         <v>55598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>599</v>
@@ -2639,13 +2654,13 @@
         <v>625057</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>619</v>
@@ -2654,13 +2669,13 @@
         <v>647757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1218</v>
@@ -2669,13 +2684,13 @@
         <v>1272814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2705,13 @@
         <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>658</v>
@@ -2705,13 +2720,13 @@
         <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1271</v>
@@ -2720,18 +2735,18 @@
         <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2749,7 +2764,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2794,13 +2809,13 @@
         <v>14602</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -2809,13 +2824,13 @@
         <v>31285</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -2824,19 +2839,19 @@
         <v>45887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>470</v>
@@ -2845,13 +2860,13 @@
         <v>504545</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>471</v>
@@ -2860,13 +2875,13 @@
         <v>484357</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>941</v>
@@ -2875,13 +2890,13 @@
         <v>988902</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2911,13 @@
         <v>519147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -2911,13 +2926,13 @@
         <v>515642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>986</v>
@@ -2926,18 +2941,18 @@
         <v>1034789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2955,7 +2970,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2970,7 +2985,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2985,7 +3000,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3015,13 @@
         <v>16711</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -3015,13 +3030,13 @@
         <v>22350</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>38</v>
@@ -3030,19 +3045,19 @@
         <v>39061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>376</v>
@@ -3051,13 +3066,13 @@
         <v>369999</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>374</v>
@@ -3066,13 +3081,13 @@
         <v>381636</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>750</v>
@@ -3081,13 +3096,13 @@
         <v>751635</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3117,13 @@
         <v>386710</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>396</v>
@@ -3117,13 +3132,13 @@
         <v>403986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -3132,18 +3147,18 @@
         <v>790696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3161,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3176,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3191,7 +3206,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3221,13 @@
         <v>12919</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -3221,13 +3236,13 @@
         <v>36426</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -3236,19 +3251,19 @@
         <v>49345</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>509</v>
@@ -3257,13 +3272,13 @@
         <v>489547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>625</v>
@@ -3272,13 +3287,13 @@
         <v>640416</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>1134</v>
@@ -3287,13 +3302,13 @@
         <v>1129963</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3323,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3323,13 +3338,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3338,13 +3353,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3382,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3382,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3397,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3427,13 @@
         <v>78472</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>189</v>
@@ -3427,13 +3442,13 @@
         <v>194900</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>267</v>
@@ -3442,19 +3457,19 @@
         <v>273372</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>3136</v>
@@ -3463,13 +3478,13 @@
         <v>3198072</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H30" s="7">
         <v>3108</v>
@@ -3478,28 +3493,28 @@
         <v>3184298</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M30" s="7">
         <v>6244</v>
       </c>
       <c r="N30" s="7">
-        <v>6382368</v>
+        <v>6382369</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3529,13 @@
         <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -3529,33 +3544,33 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3577,7 +3592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A028CB4D-7D56-4E07-8D39-EBC0A6D5A0CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F07560-5F26-452C-A87A-0F834D3FB5F0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3594,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3707,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3722,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3737,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3767,13 @@
         <v>6960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3767,13 +3782,13 @@
         <v>14370</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -3782,19 +3797,19 @@
         <v>21330</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>439</v>
@@ -3803,13 +3818,13 @@
         <v>447186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>408</v>
@@ -3818,13 +3833,13 @@
         <v>415860</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>847</v>
@@ -3833,13 +3848,13 @@
         <v>863046</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3869,13 @@
         <v>454146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -3869,13 +3884,13 @@
         <v>430230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -3884,18 +3899,18 @@
         <v>884376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3913,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3928,7 +3943,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3943,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3973,13 @@
         <v>7415</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -3973,13 +3988,13 @@
         <v>21724</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -3988,19 +4003,19 @@
         <v>29139</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>659</v>
@@ -4009,13 +4024,13 @@
         <v>679672</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>550</v>
@@ -4024,13 +4039,13 @@
         <v>588531</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>1209</v>
@@ -4039,13 +4054,13 @@
         <v>1268203</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4075,13 @@
         <v>687087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -4075,13 +4090,13 @@
         <v>610255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -4090,18 +4105,18 @@
         <v>1297342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4119,7 +4134,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4134,7 +4149,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4149,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4179,13 @@
         <v>11180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4179,13 +4194,13 @@
         <v>50312</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -4194,19 +4209,19 @@
         <v>61493</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>641</v>
@@ -4215,13 +4230,13 @@
         <v>670683</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>617</v>
@@ -4230,13 +4245,13 @@
         <v>659262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>1258</v>
@@ -4245,13 +4260,13 @@
         <v>1329944</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4281,13 @@
         <v>681863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>666</v>
@@ -4281,13 +4296,13 @@
         <v>709574</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1317</v>
@@ -4296,18 +4311,18 @@
         <v>1391437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4325,7 +4340,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4340,7 +4355,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4355,7 +4370,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4385,13 @@
         <v>6196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -4385,13 +4400,13 @@
         <v>34637</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -4400,19 +4415,19 @@
         <v>40833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>542</v>
@@ -4421,13 +4436,13 @@
         <v>608421</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H18" s="7">
         <v>508</v>
@@ -4436,13 +4451,13 @@
         <v>579627</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M18" s="7">
         <v>1050</v>
@@ -4451,13 +4466,13 @@
         <v>1188047</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4487,13 @@
         <v>614617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>538</v>
@@ -4487,13 +4502,13 @@
         <v>614264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1086</v>
@@ -4502,18 +4517,18 @@
         <v>1228880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4531,7 +4546,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4546,7 +4561,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4561,7 +4576,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4591,13 @@
         <v>4243</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -4591,13 +4606,13 @@
         <v>21921</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -4606,19 +4621,19 @@
         <v>26164</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>388</v>
@@ -4627,13 +4642,13 @@
         <v>424156</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H22" s="7">
         <v>386</v>
@@ -4642,13 +4657,13 @@
         <v>425879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
         <v>774</v>
@@ -4657,13 +4672,13 @@
         <v>850035</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4693,13 @@
         <v>428399</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -4693,13 +4708,13 @@
         <v>447800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>798</v>
@@ -4708,18 +4723,18 @@
         <v>876199</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4752,7 +4767,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4767,7 +4782,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4797,13 @@
         <v>5292</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -4797,13 +4812,13 @@
         <v>46793</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -4812,19 +4827,19 @@
         <v>52085</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>499</v>
@@ -4833,13 +4848,13 @@
         <v>554345</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>650</v>
@@ -4848,13 +4863,13 @@
         <v>696182</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M26" s="7">
         <v>1149</v>
@@ -4863,13 +4878,13 @@
         <v>1250527</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4899,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -4899,13 +4914,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -4914,13 +4929,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,7 +4958,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4958,7 +4973,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4973,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5003,13 @@
         <v>41286</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="H29" s="7">
         <v>177</v>
@@ -5003,13 +5018,13 @@
         <v>189757</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M29" s="7">
         <v>217</v>
@@ -5018,19 +5033,19 @@
         <v>231043</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>3168</v>
@@ -5039,13 +5054,13 @@
         <v>3384462</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>278</v>
       </c>
       <c r="H30" s="7">
         <v>3119</v>
@@ -5054,28 +5069,28 @@
         <v>3365341</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>6287</v>
       </c>
       <c r="N30" s="7">
-        <v>6749803</v>
+        <v>6749804</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5105,13 @@
         <v>3425748</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>3296</v>
@@ -5105,33 +5120,33 @@
         <v>3555098</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>6504</v>
       </c>
       <c r="N31" s="7">
-        <v>6980846</v>
+        <v>6980847</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5153,7 +5168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19BA92B-A9D9-47F5-8DAB-D6F9498314C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9992D91-901A-42A4-A75D-55CD0F10B2F4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5170,7 +5185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5283,7 +5298,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5298,7 +5313,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5313,7 +5328,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5343,13 @@
         <v>3922</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5343,13 +5358,13 @@
         <v>8621</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5358,19 +5373,19 @@
         <v>12543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>389</v>
@@ -5379,13 +5394,13 @@
         <v>415541</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -5394,13 +5409,13 @@
         <v>387134</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="M6" s="7">
         <v>784</v>
@@ -5409,13 +5424,13 @@
         <v>802675</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>286</v>
+        <v>92</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5445,13 @@
         <v>419463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>404</v>
@@ -5445,13 +5460,13 @@
         <v>395755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>797</v>
@@ -5460,18 +5475,18 @@
         <v>815218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5489,7 +5504,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5504,7 +5519,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5519,7 +5534,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5549,13 @@
         <v>4246</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="H9" s="7">
         <v>38</v>
@@ -5549,13 +5564,13 @@
         <v>37311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -5564,19 +5579,19 @@
         <v>41557</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>563</v>
@@ -5585,13 +5600,13 @@
         <v>586250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="H10" s="7">
         <v>541</v>
@@ -5600,13 +5615,13 @@
         <v>526233</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>314</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>1104</v>
@@ -5615,13 +5630,13 @@
         <v>1112483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5651,13 @@
         <v>590496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>579</v>
@@ -5651,13 +5666,13 @@
         <v>563544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -5666,18 +5681,18 @@
         <v>1154040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5695,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5710,7 +5725,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5725,7 +5740,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5755,13 @@
         <v>7540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5755,13 +5770,13 @@
         <v>20179</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5770,19 +5785,19 @@
         <v>27720</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>631</v>
@@ -5791,13 +5806,13 @@
         <v>661557</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>646</v>
@@ -5806,13 +5821,13 @@
         <v>641207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>1277</v>
@@ -5821,13 +5836,13 @@
         <v>1302763</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5857,13 @@
         <v>669097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>665</v>
@@ -5857,13 +5872,13 @@
         <v>661386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1303</v>
@@ -5872,18 +5887,18 @@
         <v>1330483</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5901,7 +5916,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5916,7 +5931,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5931,7 +5946,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5961,13 @@
         <v>11312</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -5961,13 +5976,13 @@
         <v>34672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -5976,19 +5991,19 @@
         <v>45984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>571</v>
@@ -5997,13 +6012,13 @@
         <v>634736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>329</v>
+        <v>174</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>253</v>
+        <v>340</v>
       </c>
       <c r="H18" s="7">
         <v>570</v>
@@ -6012,28 +6027,28 @@
         <v>614405</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
         <v>1141</v>
       </c>
       <c r="N18" s="7">
-        <v>1249141</v>
+        <v>1249142</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>332</v>
+        <v>58</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6063,13 @@
         <v>646048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>602</v>
@@ -6063,33 +6078,33 @@
         <v>649077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6107,7 +6122,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6122,7 +6137,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6137,7 +6152,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6167,13 @@
         <v>10756</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>336</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -6167,13 +6182,13 @@
         <v>35033</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M21" s="7">
         <v>38</v>
@@ -6182,19 +6197,19 @@
         <v>45789</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>341</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>415</v>
@@ -6203,13 +6218,13 @@
         <v>467162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>344</v>
+        <v>27</v>
       </c>
       <c r="H22" s="7">
         <v>404</v>
@@ -6218,13 +6233,13 @@
         <v>461816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>819</v>
@@ -6233,13 +6248,13 @@
         <v>928978</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6269,13 @@
         <v>477918</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -6269,13 +6284,13 @@
         <v>496849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>857</v>
@@ -6284,18 +6299,18 @@
         <v>974767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6313,7 +6328,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6328,7 +6343,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6343,7 +6358,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,13 +6373,13 @@
         <v>10099</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -6373,13 +6388,13 @@
         <v>58882</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -6388,19 +6403,19 @@
         <v>68981</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>616</v>
@@ -6409,13 +6424,13 @@
         <v>581229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>604</v>
@@ -6424,13 +6439,13 @@
         <v>719049</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M26" s="7">
         <v>1220</v>
@@ -6439,13 +6454,13 @@
         <v>1300278</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,13 +6475,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -6475,13 +6490,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -6490,13 +6505,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,7 +6534,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6534,7 +6549,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6549,7 +6564,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6579,13 @@
         <v>47875</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>373</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H29" s="7">
         <v>178</v>
@@ -6579,13 +6594,13 @@
         <v>194699</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>247</v>
+        <v>377</v>
       </c>
       <c r="M29" s="7">
         <v>224</v>
@@ -6594,19 +6609,19 @@
         <v>242574</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>3185</v>
@@ -6615,13 +6630,13 @@
         <v>3346475</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>132</v>
+        <v>381</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H30" s="7">
         <v>3160</v>
@@ -6630,13 +6645,13 @@
         <v>3349843</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>256</v>
+        <v>385</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="M30" s="7">
         <v>6345</v>
@@ -6645,13 +6660,13 @@
         <v>6696318</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6681,13 @@
         <v>3394350</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>3338</v>
@@ -6681,13 +6696,13 @@
         <v>3544542</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>6569</v>
@@ -6696,18 +6711,18 @@
         <v>6938892</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6729,7 +6744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C02AE-5881-4B97-AEEC-F136D59BF118}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEC3ADA-946F-4F73-898E-8A120F6F3DA8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6746,7 +6761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6859,7 +6874,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6874,7 +6889,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6889,7 +6904,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6919,13 @@
         <v>11759</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>385</v>
+        <v>69</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>386</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -6919,13 +6934,13 @@
         <v>35291</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -6934,19 +6949,19 @@
         <v>47050</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>84</v>
+        <v>397</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>166</v>
@@ -6955,13 +6970,13 @@
         <v>365760</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>395</v>
+        <v>189</v>
       </c>
       <c r="H6" s="7">
         <v>186</v>
@@ -6970,13 +6985,13 @@
         <v>319666</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M6" s="7">
         <v>352</v>
@@ -6985,13 +7000,13 @@
         <v>685426</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>93</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,13 +7021,13 @@
         <v>377519</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -7021,13 +7036,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>378</v>
@@ -7036,18 +7051,18 @@
         <v>732476</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7065,7 +7080,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>406</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7074,13 +7089,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7089,13 +7104,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7125,13 @@
         <v>19203</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -7125,13 +7140,13 @@
         <v>53370</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>408</v>
+        <v>219</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M9" s="7">
         <v>63</v>
@@ -7140,19 +7155,19 @@
         <v>72573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>287</v>
@@ -7161,13 +7176,13 @@
         <v>409193</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H10" s="7">
         <v>412</v>
@@ -7176,13 +7191,13 @@
         <v>445207</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M10" s="7">
         <v>699</v>
@@ -7191,13 +7206,13 @@
         <v>854400</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7227,13 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -7227,13 +7242,13 @@
         <v>499215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>763</v>
@@ -7242,18 +7257,18 @@
         <v>927611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7271,7 +7286,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7280,13 +7295,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7295,13 +7310,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7331,13 @@
         <v>30721</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -7331,13 +7346,13 @@
         <v>59733</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>340</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>117</v>
@@ -7346,19 +7361,19 @@
         <v>90454</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>408</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>520</v>
@@ -7367,13 +7382,13 @@
         <v>526531</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>752</v>
@@ -7382,13 +7397,13 @@
         <v>521497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="M14" s="7">
         <v>1272</v>
@@ -7397,13 +7412,13 @@
         <v>1048029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7433,13 @@
         <v>557252</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>846</v>
@@ -7433,13 +7448,13 @@
         <v>608920</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1392</v>
@@ -7448,18 +7463,18 @@
         <v>1166172</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7477,7 +7492,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7486,13 +7501,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7501,13 +7516,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7537,13 @@
         <v>43155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -7537,13 +7552,13 @@
         <v>112961</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -7552,19 +7567,19 @@
         <v>156116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>622</v>
@@ -7573,13 +7588,13 @@
         <v>679732</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>968</v>
@@ -7588,13 +7603,13 @@
         <v>633095</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M18" s="7">
         <v>1590</v>
@@ -7603,13 +7618,13 @@
         <v>1312828</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7639,13 @@
         <v>722887</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1140</v>
@@ -7639,13 +7654,13 @@
         <v>746464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1804</v>
@@ -7654,18 +7669,18 @@
         <v>1469352</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7683,7 +7698,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7692,13 +7707,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7707,13 +7722,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>467</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,13 +7743,13 @@
         <v>24787</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="H21" s="7">
         <v>122</v>
@@ -7743,13 +7758,13 @@
         <v>71270</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -7758,19 +7773,19 @@
         <v>96057</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>634</v>
@@ -7779,13 +7794,13 @@
         <v>574299</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="H22" s="7">
         <v>877</v>
@@ -7794,13 +7809,13 @@
         <v>522146</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>1511</v>
@@ -7809,13 +7824,13 @@
         <v>1096446</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7830,13 +7845,13 @@
         <v>599086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>1000</v>
@@ -7845,13 +7860,13 @@
         <v>596179</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>1662</v>
@@ -7860,18 +7875,18 @@
         <v>1195265</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7904,7 +7919,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7919,7 +7934,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7934,13 +7949,13 @@
         <v>26050</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -7949,13 +7964,13 @@
         <v>85760</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="M25" s="7">
         <v>202</v>
@@ -7964,19 +7979,19 @@
         <v>111810</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>987</v>
@@ -7985,13 +8000,13 @@
         <v>670927</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="H26" s="7">
         <v>1545</v>
@@ -8000,13 +8015,13 @@
         <v>940214</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>419</v>
+        <v>500</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="M26" s="7">
         <v>2532</v>
@@ -8015,13 +8030,13 @@
         <v>1611141</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8036,13 +8051,13 @@
         <v>696977</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1707</v>
@@ -8051,13 +8066,13 @@
         <v>1025974</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2734</v>
@@ -8066,13 +8081,13 @@
         <v>1722951</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,7 +8110,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8104,13 +8119,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8119,13 +8134,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8155,13 @@
         <v>155675</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>501</v>
+        <v>127</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H29" s="7">
         <v>615</v>
@@ -8155,13 +8170,13 @@
         <v>418386</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="M29" s="7">
         <v>771</v>
@@ -8170,19 +8185,19 @@
         <v>574061</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>3216</v>
@@ -8191,13 +8206,13 @@
         <v>3226442</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>510</v>
+        <v>137</v>
       </c>
       <c r="H30" s="7">
         <v>4740</v>
@@ -8206,13 +8221,13 @@
         <v>3381826</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="M30" s="7">
         <v>7956</v>
@@ -8221,13 +8236,13 @@
         <v>6608269</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8242,13 +8257,13 @@
         <v>3382117</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>5361</v>
@@ -8257,13 +8272,13 @@
         <v>3831708</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>8733</v>
@@ -8272,18 +8287,18 @@
         <v>7213826</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1421-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6271283C-8CCF-4DE0-A8ED-6876E2757DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEDF668A-FE81-4BF5-AE49-5B066C56BA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5DF12C4E-EB7F-4091-9F83-72A62F84D1D1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1292FCD-4BCC-4FAA-BFC7-6A4562DB2384}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="529">
   <si>
     <t>Población con diagnóstico de migrañas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1504 +95,1525 @@
     <t>1,1%</t>
   </si>
   <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
   </si>
   <si>
     <t>88,26%</t>
@@ -2016,7 +2037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DB413F-8D40-4064-A262-F178F57805F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9548D140-E918-4B58-8A5E-4F70DFAFC8AA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2194,10 +2215,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -2206,13 +2227,13 @@
         <v>15299</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -2221,19 +2242,19 @@
         <v>20745</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>494</v>
@@ -2242,13 +2263,13 @@
         <v>488618</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>473</v>
@@ -2257,13 +2278,13 @@
         <v>452190</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>967</v>
@@ -2272,13 +2293,13 @@
         <v>940808</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,13 +2314,13 @@
         <v>494064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2308,13 +2329,13 @@
         <v>467489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>988</v>
@@ -2323,18 +2344,18 @@
         <v>961553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2352,7 +2373,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2367,7 +2388,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2382,7 +2403,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2418,13 @@
         <v>15182</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -2412,13 +2433,13 @@
         <v>47553</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -2427,19 +2448,19 @@
         <v>62735</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>688</v>
@@ -2448,13 +2469,13 @@
         <v>720307</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>546</v>
@@ -2463,13 +2484,13 @@
         <v>577941</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1234</v>
@@ -2478,13 +2499,13 @@
         <v>1298247</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2520,13 @@
         <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -2514,13 +2535,13 @@
         <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -2529,18 +2550,18 @@
         <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2558,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2573,7 +2594,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2588,7 +2609,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2624,13 @@
         <v>13611</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -2618,13 +2639,13 @@
         <v>41987</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -2633,19 +2654,19 @@
         <v>55598</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>599</v>
@@ -2654,13 +2675,13 @@
         <v>625057</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>619</v>
@@ -2669,13 +2690,13 @@
         <v>647757</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1218</v>
@@ -2684,13 +2705,13 @@
         <v>1272814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2726,13 @@
         <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>658</v>
@@ -2720,13 +2741,13 @@
         <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1271</v>
@@ -2735,18 +2756,18 @@
         <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2764,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2809,13 +2830,13 @@
         <v>14602</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -2824,13 +2845,13 @@
         <v>31285</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -2839,19 +2860,19 @@
         <v>45887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>470</v>
@@ -2860,13 +2881,13 @@
         <v>504545</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>471</v>
@@ -2875,13 +2896,13 @@
         <v>484357</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>941</v>
@@ -2890,13 +2911,13 @@
         <v>988902</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2932,13 @@
         <v>519147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -2926,13 +2947,13 @@
         <v>515642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>986</v>
@@ -2941,18 +2962,18 @@
         <v>1034789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2970,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2985,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3000,7 +3021,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3036,13 @@
         <v>16711</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -3030,13 +3051,13 @@
         <v>22350</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>38</v>
@@ -3045,19 +3066,19 @@
         <v>39061</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>376</v>
@@ -3066,13 +3087,13 @@
         <v>369999</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>374</v>
@@ -3081,13 +3102,13 @@
         <v>381636</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>750</v>
@@ -3096,13 +3117,13 @@
         <v>751635</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3138,13 @@
         <v>386710</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>396</v>
@@ -3132,13 +3153,13 @@
         <v>403986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -3147,18 +3168,18 @@
         <v>790696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3176,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3191,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3206,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3242,13 @@
         <v>12919</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -3236,13 +3257,13 @@
         <v>36426</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -3251,19 +3272,19 @@
         <v>49345</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>509</v>
@@ -3272,13 +3293,13 @@
         <v>489547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>625</v>
@@ -3287,13 +3308,13 @@
         <v>640416</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>1134</v>
@@ -3302,13 +3323,13 @@
         <v>1129963</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3344,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3338,13 +3359,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3353,13 +3374,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3403,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3397,7 +3418,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3412,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3448,13 @@
         <v>78472</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7">
         <v>189</v>
@@ -3442,13 +3463,13 @@
         <v>194900</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>267</v>
@@ -3457,34 +3478,34 @@
         <v>273372</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>3136</v>
       </c>
       <c r="D30" s="7">
-        <v>3198072</v>
+        <v>3198071</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>3108</v>
@@ -3493,13 +3514,13 @@
         <v>3184298</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M30" s="7">
         <v>6244</v>
@@ -3508,13 +3529,13 @@
         <v>6382369</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,16 +3547,16 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -3544,13 +3565,13 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
@@ -3559,18 +3580,18 @@
         <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3592,7 +3613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F07560-5F26-452C-A87A-0F834D3FB5F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE73221-D456-4171-927E-A235B1FA6793}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,7 +3630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3722,7 +3743,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3737,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3752,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3788,13 @@
         <v>6960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3782,13 +3803,13 @@
         <v>14370</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -3797,19 +3818,19 @@
         <v>21330</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>439</v>
@@ -3818,13 +3839,13 @@
         <v>447186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>408</v>
@@ -3833,13 +3854,13 @@
         <v>415860</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>847</v>
@@ -3848,13 +3869,13 @@
         <v>863046</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3890,13 @@
         <v>454146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -3884,13 +3905,13 @@
         <v>430230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -3899,18 +3920,18 @@
         <v>884376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3928,7 +3949,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3943,7 +3964,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3958,7 +3979,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3994,13 @@
         <v>7415</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -3988,13 +4009,13 @@
         <v>21724</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -4003,19 +4024,19 @@
         <v>29139</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>659</v>
@@ -4024,13 +4045,13 @@
         <v>679672</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>550</v>
@@ -4039,10 +4060,10 @@
         <v>588531</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>192</v>
@@ -4060,7 +4081,7 @@
         <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4096,13 @@
         <v>687087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -4090,13 +4111,13 @@
         <v>610255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -4105,18 +4126,18 @@
         <v>1297342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4134,7 +4155,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4149,7 +4170,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4164,7 +4185,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4200,13 @@
         <v>11180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4194,13 +4215,13 @@
         <v>50312</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -4209,19 +4230,19 @@
         <v>61493</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>641</v>
@@ -4230,13 +4251,13 @@
         <v>670683</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>617</v>
@@ -4245,13 +4266,13 @@
         <v>659262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>1258</v>
@@ -4260,13 +4281,13 @@
         <v>1329944</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4302,13 @@
         <v>681863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>666</v>
@@ -4296,13 +4317,13 @@
         <v>709574</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1317</v>
@@ -4311,18 +4332,18 @@
         <v>1391437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4340,7 +4361,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4355,7 +4376,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4370,7 +4391,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4406,13 @@
         <v>6196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -4400,13 +4421,13 @@
         <v>34637</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -4415,19 +4436,19 @@
         <v>40833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>542</v>
@@ -4469,10 +4490,10 @@
         <v>229</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4508,13 @@
         <v>614617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>538</v>
@@ -4502,13 +4523,13 @@
         <v>614264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1086</v>
@@ -4517,18 +4538,18 @@
         <v>1228880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4546,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4561,7 +4582,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4576,7 +4597,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4612,13 @@
         <v>4243</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -4606,13 +4627,13 @@
         <v>21921</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -4621,19 +4642,19 @@
         <v>26164</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>388</v>
@@ -4642,13 +4663,13 @@
         <v>424156</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H22" s="7">
         <v>386</v>
@@ -4657,13 +4678,13 @@
         <v>425879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>774</v>
@@ -4672,13 +4693,13 @@
         <v>850035</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4714,13 @@
         <v>428399</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -4708,13 +4729,13 @@
         <v>447800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>798</v>
@@ -4723,18 +4744,18 @@
         <v>876199</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4767,7 +4788,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4782,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4818,13 @@
         <v>5292</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -4812,13 +4833,13 @@
         <v>46793</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -4827,19 +4848,19 @@
         <v>52085</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>499</v>
@@ -4848,13 +4869,13 @@
         <v>554345</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H26" s="7">
         <v>650</v>
@@ -4863,13 +4884,13 @@
         <v>696182</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M26" s="7">
         <v>1149</v>
@@ -4878,13 +4899,13 @@
         <v>1250527</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4920,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -4914,13 +4935,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -4929,13 +4950,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,7 +4979,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4973,7 +4994,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4988,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5024,13 @@
         <v>41286</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H29" s="7">
         <v>177</v>
@@ -5018,13 +5039,13 @@
         <v>189757</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M29" s="7">
         <v>217</v>
@@ -5033,19 +5054,19 @@
         <v>231043</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>3168</v>
@@ -5054,13 +5075,13 @@
         <v>3384462</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H30" s="7">
         <v>3119</v>
@@ -5069,13 +5090,13 @@
         <v>3365341</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="M30" s="7">
         <v>6287</v>
@@ -5084,13 +5105,13 @@
         <v>6749804</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5126,13 @@
         <v>3425748</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>3296</v>
@@ -5120,13 +5141,13 @@
         <v>3555098</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>6504</v>
@@ -5135,18 +5156,18 @@
         <v>6980847</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5168,7 +5189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9992D91-901A-42A4-A75D-55CD0F10B2F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CEAE81-18B3-43FE-8984-CD8065EA867E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5185,7 +5206,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5298,7 +5319,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5313,7 +5334,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5328,7 +5349,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5364,13 @@
         <v>3922</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5358,13 +5379,13 @@
         <v>8621</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5373,19 +5394,19 @@
         <v>12543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>83</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>389</v>
@@ -5394,13 +5415,13 @@
         <v>415541</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -5409,13 +5430,13 @@
         <v>387134</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M6" s="7">
         <v>784</v>
@@ -5424,13 +5445,13 @@
         <v>802675</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>92</v>
+        <v>295</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5466,13 @@
         <v>419463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>404</v>
@@ -5460,13 +5481,13 @@
         <v>395755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>797</v>
@@ -5475,18 +5496,18 @@
         <v>815218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5504,7 +5525,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5519,7 +5540,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5534,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5570,13 @@
         <v>4246</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H9" s="7">
         <v>38</v>
@@ -5564,13 +5585,13 @@
         <v>37311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -5579,19 +5600,19 @@
         <v>41557</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>308</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>310</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>563</v>
@@ -5600,13 +5621,13 @@
         <v>586250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
         <v>541</v>
@@ -5615,13 +5636,13 @@
         <v>526233</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>1104</v>
@@ -5630,13 +5651,13 @@
         <v>1112483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>317</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5672,13 @@
         <v>590496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>579</v>
@@ -5666,13 +5687,13 @@
         <v>563544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -5681,18 +5702,18 @@
         <v>1154040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5710,7 +5731,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5725,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5740,7 +5761,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5776,13 @@
         <v>7540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5770,13 +5791,13 @@
         <v>20179</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5785,19 +5806,19 @@
         <v>27720</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>631</v>
@@ -5806,13 +5827,13 @@
         <v>661557</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H14" s="7">
         <v>646</v>
@@ -5821,13 +5842,13 @@
         <v>641207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>1277</v>
@@ -5836,13 +5857,13 @@
         <v>1302763</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5878,13 @@
         <v>669097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>665</v>
@@ -5872,13 +5893,13 @@
         <v>661386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1303</v>
@@ -5887,18 +5908,18 @@
         <v>1330483</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5916,7 +5937,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5931,7 +5952,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5946,7 +5967,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5982,13 @@
         <v>11312</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -5976,13 +5997,13 @@
         <v>34672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -5991,19 +6012,19 @@
         <v>45984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>333</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>571</v>
@@ -6012,13 +6033,13 @@
         <v>634736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>174</v>
+        <v>336</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H18" s="7">
         <v>570</v>
@@ -6027,28 +6048,28 @@
         <v>614405</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M18" s="7">
         <v>1141</v>
       </c>
       <c r="N18" s="7">
-        <v>1249142</v>
+        <v>1249141</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6084,13 @@
         <v>646048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>602</v>
@@ -6078,33 +6099,33 @@
         <v>649077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6122,7 +6143,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6137,7 +6158,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6152,7 +6173,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,13 +6188,13 @@
         <v>10756</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>17</v>
+        <v>343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -6182,13 +6203,13 @@
         <v>35033</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M21" s="7">
         <v>38</v>
@@ -6197,10 +6218,10 @@
         <v>45789</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>350</v>
@@ -6209,7 +6230,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>415</v>
@@ -6224,7 +6245,7 @@
         <v>351</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>27</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>404</v>
@@ -6233,13 +6254,13 @@
         <v>461816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>819</v>
@@ -6248,13 +6269,13 @@
         <v>928978</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>34</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6290,13 @@
         <v>477918</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -6284,13 +6305,13 @@
         <v>496849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>857</v>
@@ -6299,18 +6320,18 @@
         <v>974767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6328,7 +6349,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6343,7 +6364,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6358,7 +6379,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,13 +6394,13 @@
         <v>10099</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>358</v>
+        <v>198</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -6388,13 +6409,13 @@
         <v>58882</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -6403,19 +6424,19 @@
         <v>68981</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>616</v>
@@ -6424,13 +6445,13 @@
         <v>581229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>366</v>
+        <v>206</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="H26" s="7">
         <v>604</v>
@@ -6439,13 +6460,13 @@
         <v>719049</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M26" s="7">
         <v>1220</v>
@@ -6454,13 +6475,13 @@
         <v>1300278</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6496,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -6490,13 +6511,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -6505,13 +6526,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6549,7 +6570,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6564,7 +6585,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6600,13 @@
         <v>47875</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>374</v>
+        <v>217</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>178</v>
@@ -6597,10 +6618,10 @@
         <v>376</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M29" s="7">
         <v>224</v>
@@ -6609,19 +6630,19 @@
         <v>242574</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>3185</v>
@@ -6630,13 +6651,13 @@
         <v>3346475</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>383</v>
+        <v>223</v>
       </c>
       <c r="H30" s="7">
         <v>3160</v>
@@ -6645,13 +6666,13 @@
         <v>3349843</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M30" s="7">
         <v>6345</v>
@@ -6681,13 +6702,13 @@
         <v>3394350</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>3338</v>
@@ -6696,13 +6717,13 @@
         <v>3544542</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>6569</v>
@@ -6711,18 +6732,18 @@
         <v>6938892</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6744,7 +6765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEC3ADA-946F-4F73-898E-8A120F6F3DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DD3C89-F18A-499D-94BF-6BA8528E2E33}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6889,7 +6910,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6919,13 +6940,13 @@
         <v>11759</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>392</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -6934,13 +6955,13 @@
         <v>35291</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -6949,19 +6970,19 @@
         <v>47050</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>166</v>
@@ -6970,13 +6991,13 @@
         <v>365760</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H6" s="7">
         <v>186</v>
@@ -6985,13 +7006,13 @@
         <v>319666</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M6" s="7">
         <v>352</v>
@@ -7000,13 +7021,13 @@
         <v>685426</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +7042,13 @@
         <v>377519</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -7036,13 +7057,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>378</v>
@@ -7051,18 +7072,18 @@
         <v>732476</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7080,7 +7101,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7089,13 +7110,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7104,13 +7125,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7146,13 @@
         <v>19203</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -7140,13 +7161,13 @@
         <v>53370</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>219</v>
+        <v>415</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M9" s="7">
         <v>63</v>
@@ -7155,19 +7176,19 @@
         <v>72573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>287</v>
@@ -7176,13 +7197,13 @@
         <v>409193</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H10" s="7">
         <v>412</v>
@@ -7191,13 +7212,13 @@
         <v>445207</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M10" s="7">
         <v>699</v>
@@ -7206,13 +7227,13 @@
         <v>854400</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,13 +7248,13 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -7242,13 +7263,13 @@
         <v>499215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>763</v>
@@ -7257,18 +7278,18 @@
         <v>927611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7286,7 +7307,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7295,13 +7316,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7310,13 +7331,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7352,13 @@
         <v>30721</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -7346,13 +7367,13 @@
         <v>59733</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>117</v>
@@ -7361,19 +7382,19 @@
         <v>90454</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>520</v>
@@ -7382,13 +7403,13 @@
         <v>526531</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>752</v>
@@ -7397,13 +7418,13 @@
         <v>521497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>1272</v>
@@ -7412,13 +7433,13 @@
         <v>1048029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,13 +7454,13 @@
         <v>557252</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>846</v>
@@ -7448,13 +7469,13 @@
         <v>608920</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1392</v>
@@ -7463,18 +7484,18 @@
         <v>1166172</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7492,7 +7513,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7501,13 +7522,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7516,13 +7537,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,13 +7558,13 @@
         <v>43155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -7552,13 +7573,13 @@
         <v>112961</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -7567,19 +7588,19 @@
         <v>156116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>622</v>
@@ -7588,13 +7609,13 @@
         <v>679732</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H18" s="7">
         <v>968</v>
@@ -7603,13 +7624,13 @@
         <v>633095</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M18" s="7">
         <v>1590</v>
@@ -7618,13 +7639,13 @@
         <v>1312828</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,13 +7660,13 @@
         <v>722887</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>1140</v>
@@ -7654,13 +7675,13 @@
         <v>746464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1804</v>
@@ -7669,18 +7690,18 @@
         <v>1469352</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7698,7 +7719,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7707,13 +7728,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7722,13 +7743,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>467</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,13 +7764,13 @@
         <v>24787</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H21" s="7">
         <v>122</v>
@@ -7758,13 +7779,13 @@
         <v>71270</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -7773,19 +7794,19 @@
         <v>96057</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>634</v>
@@ -7794,13 +7815,13 @@
         <v>574299</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>877</v>
@@ -7809,13 +7830,13 @@
         <v>522146</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>1511</v>
@@ -7824,13 +7845,13 @@
         <v>1096446</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7845,13 +7866,13 @@
         <v>599086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>1000</v>
@@ -7860,13 +7881,13 @@
         <v>596179</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>1662</v>
@@ -7875,18 +7896,18 @@
         <v>1195265</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7919,7 +7940,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7934,7 +7955,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7970,13 @@
         <v>26050</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -7964,13 +7985,13 @@
         <v>85760</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M25" s="7">
         <v>202</v>
@@ -7979,19 +8000,19 @@
         <v>111810</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>987</v>
@@ -8000,13 +8021,13 @@
         <v>670927</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="H26" s="7">
         <v>1545</v>
@@ -8015,13 +8036,13 @@
         <v>940214</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M26" s="7">
         <v>2532</v>
@@ -8030,13 +8051,13 @@
         <v>1611141</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8051,13 +8072,13 @@
         <v>696977</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>1707</v>
@@ -8066,13 +8087,13 @@
         <v>1025974</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>2734</v>
@@ -8081,13 +8102,13 @@
         <v>1722951</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,7 +8131,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8119,13 +8140,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8134,13 +8155,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>508</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8176,13 @@
         <v>155675</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>127</v>
+        <v>514</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="H29" s="7">
         <v>615</v>
@@ -8170,13 +8191,13 @@
         <v>418386</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>348</v>
+        <v>517</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="M29" s="7">
         <v>771</v>
@@ -8185,19 +8206,19 @@
         <v>574061</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>3216</v>
@@ -8206,13 +8227,13 @@
         <v>3226442</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>137</v>
+        <v>524</v>
       </c>
       <c r="H30" s="7">
         <v>4740</v>
@@ -8221,13 +8242,13 @@
         <v>3381826</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="M30" s="7">
         <v>7956</v>
@@ -8236,13 +8257,13 @@
         <v>6608269</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8257,13 +8278,13 @@
         <v>3382117</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>5361</v>
@@ -8272,13 +8293,13 @@
         <v>3831708</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>8733</v>
@@ -8287,18 +8308,18 @@
         <v>7213826</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1421-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32CDB2DD-4A9C-4CE8-BFA8-B2A68D0E3B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC9FEC3-9E4F-4FFB-980B-BF8DCF5B9A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28E025EF-1789-41D6-A9C2-9127900CCD38}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4002C723-E3B9-445D-8984-A68C8468B382}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="509">
   <si>
     <t>Población con diagnóstico de migrañas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,06%</t>
@@ -191,7 +191,7 @@
     <t>96,48%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,13%</t>
@@ -248,7 +248,7 @@
     <t>96,85%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,81%</t>
@@ -299,7 +299,7 @@
     <t>96,84%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>4,32%</t>
@@ -356,744 +356,861 @@
     <t>96,53%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
     <t>95,31%</t>
   </si>
   <si>
@@ -1109,370 +1226,346 @@
     <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>93,18%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>91,32%</t>
   </si>
   <si>
-    <t>92,65%</t>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
 </sst>
 </file>
@@ -1884,8 +1977,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0036471-EE6D-4BAE-8AE8-CB9E6F427D2F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7467713-9799-4095-9EA1-B806DA077FBD}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2777,10 +2870,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>12919</v>
+        <v>7279</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2792,10 +2885,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I19" s="7">
-        <v>36426</v>
+        <v>24712</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2807,19 +2900,19 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N19" s="7">
-        <v>49345</v>
+        <v>31991</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,49 +2921,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>509</v>
+        <v>295</v>
       </c>
       <c r="D20" s="7">
-        <v>489547</v>
+        <v>285304</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>625</v>
+        <v>345</v>
       </c>
       <c r="I20" s="7">
-        <v>640416</v>
+        <v>318222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>1134</v>
+        <v>640</v>
       </c>
       <c r="N20" s="7">
-        <v>1129963</v>
+        <v>603526</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,10 +2972,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2894,10 +2987,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2909,10 +3002,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2926,55 +3019,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>78472</v>
+        <v>5640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>194900</v>
+        <v>11715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>273372</v>
+        <v>17354</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,49 +3076,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3136</v>
+        <v>214</v>
       </c>
       <c r="D23" s="7">
-        <v>3198072</v>
+        <v>204243</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
-        <v>3108</v>
+        <v>280</v>
       </c>
       <c r="I23" s="7">
-        <v>3184298</v>
+        <v>322193</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>6244</v>
+        <v>494</v>
       </c>
       <c r="N23" s="7">
-        <v>6382368</v>
+        <v>526437</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,63 +3127,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>78</v>
+      </c>
+      <c r="D25" s="7">
+        <v>78472</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>189</v>
+      </c>
+      <c r="I25" s="7">
+        <v>194900</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>267</v>
+      </c>
+      <c r="N25" s="7">
+        <v>273372</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3136</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3198071</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3108</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3184297</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6244</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6382369</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3103,8 +3352,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE1A62C-A654-459B-9B7C-01A112FF2FA7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A98041-8A71-400B-8943-3484D487052B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3120,7 +3369,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3227,13 +3476,13 @@
         <v>6960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3242,10 +3491,10 @@
         <v>14370</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3257,13 +3506,13 @@
         <v>21330</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3527,13 @@
         <v>447186</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>408</v>
@@ -3293,13 +3542,13 @@
         <v>415860</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>847</v>
@@ -3308,13 +3557,13 @@
         <v>863046</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3631,13 @@
         <v>7415</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -3400,10 +3649,10 @@
         <v>91</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -3412,13 +3661,13 @@
         <v>29139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3682,13 @@
         <v>679672</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>550</v>
@@ -3451,10 +3700,10 @@
         <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>1209</v>
@@ -3463,13 +3712,13 @@
         <v>1268203</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3786,13 @@
         <v>11180</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3552,13 +3801,13 @@
         <v>50312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -3567,13 +3816,13 @@
         <v>61493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3837,13 @@
         <v>670683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>617</v>
@@ -3603,13 +3852,13 @@
         <v>659262</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -3618,13 +3867,13 @@
         <v>1329944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3941,13 @@
         <v>6196</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3707,13 +3956,13 @@
         <v>34637</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3722,13 +3971,13 @@
         <v>40833</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3992,13 @@
         <v>608421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -3758,13 +4007,13 @@
         <v>579627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>1050</v>
@@ -3773,13 +4022,13 @@
         <v>1188047</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +4096,13 @@
         <v>4243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3862,13 +4111,13 @@
         <v>21921</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3877,13 +4126,13 @@
         <v>26164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +4147,13 @@
         <v>424156</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>386</v>
@@ -3913,10 +4162,10 @@
         <v>425879</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>42</v>
@@ -3928,13 +4177,13 @@
         <v>850035</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,49 +4245,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>5292</v>
+        <v>3088</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="H19" s="7">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>46793</v>
+        <v>22835</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>52085</v>
+        <v>25923</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,49 +4296,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>499</v>
+        <v>279</v>
       </c>
       <c r="D20" s="7">
-        <v>554345</v>
+        <v>306698</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
-        <v>650</v>
+        <v>321</v>
       </c>
       <c r="I20" s="7">
-        <v>696182</v>
+        <v>331161</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
-        <v>1149</v>
+        <v>600</v>
       </c>
       <c r="N20" s="7">
-        <v>1250527</v>
+        <v>637859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,10 +4347,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4113,10 +4362,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4128,10 +4377,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4145,55 +4394,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>41286</v>
+        <v>2203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>189757</v>
+        <v>23958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>231043</v>
+        <v>26162</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,49 +4451,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3168</v>
+        <v>220</v>
       </c>
       <c r="D23" s="7">
-        <v>3384462</v>
+        <v>247648</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
-        <v>3119</v>
+        <v>329</v>
       </c>
       <c r="I23" s="7">
-        <v>3365341</v>
+        <v>365021</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="M23" s="7">
-        <v>6287</v>
+        <v>549</v>
       </c>
       <c r="N23" s="7">
-        <v>6749803</v>
+        <v>612668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,63 +4502,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <v>41286</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="7">
+        <v>177</v>
+      </c>
+      <c r="I25" s="7">
+        <v>189757</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M25" s="7">
+        <v>217</v>
+      </c>
+      <c r="N25" s="7">
+        <v>231043</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3168</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3384462</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3119</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3365341</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6287</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6749804</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3425748</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
-        <v>6980846</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6980847</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4322,8 +4727,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160814A5-0676-4A93-97FB-B5C0E1D70734}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB696A3E-0BA3-47D0-B9A1-B5D447AC929E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4339,7 +4744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4446,13 +4851,13 @@
         <v>3922</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4461,13 +4866,13 @@
         <v>8621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4476,13 +4881,13 @@
         <v>12543</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4902,13 @@
         <v>415541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>395</v>
@@ -4512,13 +4917,13 @@
         <v>387134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>784</v>
@@ -4527,13 +4932,13 @@
         <v>802675</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +5006,13 @@
         <v>4246</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -4619,10 +5024,10 @@
         <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4631,13 +5036,13 @@
         <v>41557</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +5057,13 @@
         <v>586250</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -4670,10 +5075,10 @@
         <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>1104</v>
@@ -4682,13 +5087,13 @@
         <v>1112483</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +5161,13 @@
         <v>7540</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4771,13 +5176,13 @@
         <v>20179</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4786,13 +5191,13 @@
         <v>27720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +5212,13 @@
         <v>661557</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>646</v>
@@ -4822,13 +5227,13 @@
         <v>641207</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>1277</v>
@@ -4837,13 +5242,13 @@
         <v>1302763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +5316,13 @@
         <v>11312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4926,13 +5331,13 @@
         <v>34672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -4941,13 +5346,13 @@
         <v>45984</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +5367,13 @@
         <v>634736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>570</v>
@@ -4977,13 +5382,13 @@
         <v>614405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>1141</v>
@@ -4992,13 +5397,13 @@
         <v>1249141</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5471,13 @@
         <v>10756</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -5081,13 +5486,13 @@
         <v>35033</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -5096,13 +5501,13 @@
         <v>45789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5522,13 @@
         <v>467162</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>404</v>
@@ -5132,13 +5537,13 @@
         <v>461816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>819</v>
@@ -5147,13 +5552,13 @@
         <v>928978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,49 +5620,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>10099</v>
+        <v>3936</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>58882</v>
+        <v>24349</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="N19" s="7">
-        <v>68981</v>
+        <v>28286</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,49 +5671,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>616</v>
+        <v>321</v>
       </c>
       <c r="D20" s="7">
-        <v>581229</v>
+        <v>330394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="H20" s="7">
-        <v>604</v>
+        <v>330</v>
       </c>
       <c r="I20" s="7">
-        <v>719049</v>
+        <v>353413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="M20" s="7">
-        <v>1220</v>
+        <v>651</v>
       </c>
       <c r="N20" s="7">
-        <v>1300278</v>
+        <v>683806</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,10 +5722,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5332,10 +5737,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5347,10 +5752,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5364,55 +5769,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>47875</v>
+        <v>6163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="I22" s="7">
-        <v>194699</v>
+        <v>34533</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="N22" s="7">
-        <v>242574</v>
+        <v>40695</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,49 +5826,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3185</v>
+        <v>295</v>
       </c>
       <c r="D23" s="7">
-        <v>3346475</v>
+        <v>250835</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>369</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="H23" s="7">
-        <v>3160</v>
+        <v>274</v>
       </c>
       <c r="I23" s="7">
-        <v>3349843</v>
+        <v>365636</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>232</v>
+        <v>373</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="M23" s="7">
-        <v>6345</v>
+        <v>569</v>
       </c>
       <c r="N23" s="7">
-        <v>6696318</v>
+        <v>616472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,63 +5877,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>46</v>
+      </c>
+      <c r="D25" s="7">
+        <v>47875</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25" s="7">
+        <v>178</v>
+      </c>
+      <c r="I25" s="7">
+        <v>194699</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M25" s="7">
+        <v>224</v>
+      </c>
+      <c r="N25" s="7">
+        <v>242574</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3185</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3346475</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3160</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3349843</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6345</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6696318</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5541,8 +6102,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D920512-6B42-4B6A-9542-B461DD42AA4D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AA010A-F504-44F5-A401-AC1E5398D510}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5558,7 +6119,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5662,46 +6223,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>11759</v>
+        <v>12898</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>356</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>357</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>35291</v>
+        <v>31835</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>47050</v>
+        <v>44733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,46 +6274,46 @@
         <v>166</v>
       </c>
       <c r="D5" s="7">
-        <v>365760</v>
+        <v>386924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>364</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>186</v>
       </c>
       <c r="I5" s="7">
-        <v>319666</v>
+        <v>281365</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>352</v>
       </c>
       <c r="N5" s="7">
-        <v>685426</v>
+        <v>668289</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,7 +6325,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>377519</v>
+        <v>399822</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5779,7 +6340,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5794,7 +6355,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>732476</v>
+        <v>713022</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5817,46 +6378,46 @@
         <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>19203</v>
+        <v>20154</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>53370</v>
+        <v>49161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
       </c>
       <c r="N7" s="7">
-        <v>72573</v>
+        <v>69315</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,46 +6429,46 @@
         <v>287</v>
       </c>
       <c r="D8" s="7">
-        <v>409193</v>
+        <v>403393</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="H8" s="7">
         <v>412</v>
       </c>
       <c r="I8" s="7">
-        <v>445207</v>
+        <v>462343</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>699</v>
       </c>
       <c r="N8" s="7">
-        <v>854400</v>
+        <v>865736</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,7 +6480,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5934,7 +6495,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5949,7 +6510,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5972,46 +6533,46 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>30721</v>
+        <v>30303</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>299</v>
+        <v>422</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>59733</v>
+        <v>56693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="M10" s="7">
         <v>117</v>
       </c>
       <c r="N10" s="7">
-        <v>90454</v>
+        <v>86997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>396</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,46 +6584,46 @@
         <v>520</v>
       </c>
       <c r="D11" s="7">
-        <v>526531</v>
+        <v>506035</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>430</v>
       </c>
       <c r="H11" s="7">
         <v>752</v>
       </c>
       <c r="I11" s="7">
-        <v>521497</v>
+        <v>483680</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="M11" s="7">
         <v>1272</v>
       </c>
       <c r="N11" s="7">
-        <v>1048028</v>
+        <v>989715</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,7 +6635,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6089,7 +6650,7 @@
         <v>843</v>
       </c>
       <c r="I12" s="7">
-        <v>581230</v>
+        <v>540373</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6104,7 +6665,7 @@
         <v>1389</v>
       </c>
       <c r="N12" s="7">
-        <v>1138482</v>
+        <v>1076712</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6127,46 +6688,46 @@
         <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>43155</v>
+        <v>41062</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>407</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
       </c>
       <c r="I13" s="7">
-        <v>112961</v>
+        <v>104173</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
       </c>
       <c r="N13" s="7">
-        <v>156116</v>
+        <v>145235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,46 +6739,46 @@
         <v>622</v>
       </c>
       <c r="D14" s="7">
-        <v>679732</v>
+        <v>845668</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>417</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>968</v>
       </c>
       <c r="I14" s="7">
-        <v>633096</v>
+        <v>607591</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>1590</v>
       </c>
       <c r="N14" s="7">
-        <v>1312828</v>
+        <v>1453259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,7 +6790,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722887</v>
+        <v>886730</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6244,7 +6805,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746057</v>
+        <v>711764</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6259,7 +6820,7 @@
         <v>1803</v>
       </c>
       <c r="N15" s="7">
-        <v>1468944</v>
+        <v>1598494</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6282,46 +6843,46 @@
         <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>24787</v>
+        <v>23723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
       </c>
       <c r="I16" s="7">
-        <v>71270</v>
+        <v>65948</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
         <v>150</v>
       </c>
       <c r="N16" s="7">
-        <v>96057</v>
+        <v>89671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,46 +6894,46 @@
         <v>634</v>
       </c>
       <c r="D17" s="7">
-        <v>574299</v>
+        <v>536514</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>877</v>
       </c>
       <c r="I17" s="7">
-        <v>522147</v>
+        <v>478780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>1511</v>
       </c>
       <c r="N17" s="7">
-        <v>1096446</v>
+        <v>1015293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,7 +6945,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6399,7 +6960,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>593417</v>
+        <v>544728</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6414,7 +6975,7 @@
         <v>1661</v>
       </c>
       <c r="N18" s="7">
-        <v>1192503</v>
+        <v>1104964</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6434,49 +6995,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>26050</v>
+        <v>13228</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>442</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="I19" s="7">
-        <v>85760</v>
+        <v>34911</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>447</v>
+        <v>193</v>
       </c>
       <c r="M19" s="7">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="N19" s="7">
-        <v>111810</v>
+        <v>48140</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,49 +7046,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>987</v>
+        <v>549</v>
       </c>
       <c r="D20" s="7">
-        <v>670927</v>
+        <v>354219</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
-        <v>1545</v>
+        <v>756</v>
       </c>
       <c r="I20" s="7">
-        <v>940214</v>
+        <v>573457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>455</v>
+        <v>198</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="M20" s="7">
-        <v>2532</v>
+        <v>1305</v>
       </c>
       <c r="N20" s="7">
-        <v>1611141</v>
+        <v>927674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,10 +7097,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696977</v>
+        <v>367447</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6551,10 +7112,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025974</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6566,10 +7127,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1722951</v>
+        <v>975814</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6583,55 +7144,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="D22" s="7">
-        <v>155675</v>
+        <v>11333</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>461</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>462</v>
+        <v>364</v>
       </c>
       <c r="H22" s="7">
-        <v>615</v>
+        <v>91</v>
       </c>
       <c r="I22" s="7">
-        <v>418386</v>
+        <v>43402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>463</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="M22" s="7">
-        <v>771</v>
+        <v>111</v>
       </c>
       <c r="N22" s="7">
-        <v>574061</v>
+        <v>54736</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>467</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,49 +7201,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3216</v>
+        <v>438</v>
       </c>
       <c r="D23" s="7">
-        <v>3226442</v>
+        <v>271426</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>470</v>
+        <v>374</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>471</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
-        <v>4740</v>
+        <v>789</v>
       </c>
       <c r="I23" s="7">
-        <v>3381826</v>
+        <v>381829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>472</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="M23" s="7">
-        <v>7956</v>
+        <v>1227</v>
       </c>
       <c r="N23" s="7">
-        <v>6608267</v>
+        <v>653254</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>477</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,63 +7252,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425231</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707990</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>156</v>
+      </c>
+      <c r="D25" s="7">
+        <v>152702</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H25" s="7">
+        <v>615</v>
+      </c>
+      <c r="I25" s="7">
+        <v>386125</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="M25" s="7">
+        <v>771</v>
+      </c>
+      <c r="N25" s="7">
+        <v>538827</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3216</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3304178</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4740</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3269043</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7956</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6573221</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3372</v>
       </c>
-      <c r="D24" s="7">
-        <v>3382117</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3456880</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5355</v>
       </c>
-      <c r="I24" s="7">
-        <v>3800212</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3655168</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8727</v>
       </c>
-      <c r="N24" s="7">
-        <v>7182328</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7112048</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
